--- a/data/ideophones_coded_SP.xlsx
+++ b/data/ideophones_coded_SP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3846f8f5134b40d/Documenten/B3 Taalwetenschap/Bachelorstage TW/Ideophone_coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Data\R\triangulating_iconicity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3839" documentId="8_{4EFE9138-D030-4A00-8305-9AA9674BB4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03D8AB83-D2F2-4FF8-B2D9-9DC4398E0A68}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38600A-3A86-4B07-8591-BEB8AFF9F920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9" yWindow="9" windowWidth="21925" windowHeight="12325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ideophones_meta" sheetId="1" r:id="rId1"/>
@@ -2995,13 +2995,13 @@
     <t>F_intonation_SP</t>
   </si>
   <si>
-    <t>F_modifiedredup_SP</t>
-  </si>
-  <si>
     <t>F_finallength_SP</t>
   </si>
   <si>
     <t>elastisch flexibel</t>
+  </si>
+  <si>
+    <t>F_redupmod_SP</t>
   </si>
 </sst>
 </file>
@@ -3067,7 +3067,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3087,7 +3087,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3410,39 +3410,39 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:AA240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.7890625" customWidth="1"/>
-    <col min="2" max="2" width="7.1015625" customWidth="1"/>
+    <col min="1" max="1" width="13.765625" customWidth="1"/>
+    <col min="2" max="2" width="7.07421875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.5234375" customWidth="1"/>
-    <col min="5" max="5" width="24.1015625" customWidth="1"/>
-    <col min="6" max="6" width="10.578125" customWidth="1"/>
-    <col min="7" max="7" width="10.20703125" customWidth="1"/>
-    <col min="8" max="8" width="12.3671875" customWidth="1"/>
-    <col min="9" max="12" width="9.20703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.41796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.20703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.47265625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.3671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.68359375" customWidth="1"/>
-    <col min="18" max="18" width="14.3125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.734375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="12.734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.53515625" customWidth="1"/>
+    <col min="5" max="5" width="24.07421875" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" customWidth="1"/>
+    <col min="7" max="7" width="10.23046875" customWidth="1"/>
+    <col min="8" max="8" width="12.3828125" customWidth="1"/>
+    <col min="9" max="12" width="9.23046875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.3828125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.23046875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.4609375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.3828125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.69140625" customWidth="1"/>
+    <col min="18" max="18" width="14.3046875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.765625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="12.765625" style="2" customWidth="1"/>
     <col min="21" max="21" width="9" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.9453125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.921875" style="2" customWidth="1"/>
     <col min="23" max="23" width="12" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.3125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9.05078125" style="2" customWidth="1"/>
-    <col min="26" max="27" width="9.05078125" customWidth="1"/>
+    <col min="24" max="24" width="10.3046875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="9.07421875" style="2" customWidth="1"/>
+    <col min="26" max="27" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>380</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>975</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>976</v>
@@ -3486,7 +3486,7 @@
         <v>978</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>979</v>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>381</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>382</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>384</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>385</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>386</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>387</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>388</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>389</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>543</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>952</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>197</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>198</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>199</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>202</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>203</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>262</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>205</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>261</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>951</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>186</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>950</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>390</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>391</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>392</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>393</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>394</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>395</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>396</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>397</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>398</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>399</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>400</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>401</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>665</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>537</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>534</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>531</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>227</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>228</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>540</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>536</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>541</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>229</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>230</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>417</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>231</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>532</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>232</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>233</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>234</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>538</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>235</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>539</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>224</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>237</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>530</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>542</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>529</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>225</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>226</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>402</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>403</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>404</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>405</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>406</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>72</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>211</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>103</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>100</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>212</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>88</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>213</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>64</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G120" t="s">
         <v>379</v>
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>214</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>62</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>206</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>90</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>216</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>217</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>66</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>74</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>76</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>91</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>218</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>219</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>78</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>207</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>97</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>92</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>93</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>102</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>220</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>80</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>82</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>84</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>221</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>98</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>208</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>94</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>95</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>222</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>223</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>96</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>101</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>67</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>209</v>
       </c>
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>68</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>86</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>210</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>407</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>408</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>409</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>410</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>411</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>412</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>149</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>245</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>141</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>140</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>246</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>247</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>248</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>249</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>143</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>144</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>250</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>238</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>251</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>147</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>949</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>252</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>142</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>253</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>254</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>59</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>150</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>152</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>239</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>255</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>145</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>256</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>151</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>148</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>257</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>258</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>259</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>260</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>240</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>241</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>242</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>243</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>146</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>244</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>301</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>174</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>34</v>
       </c>
@@ -17562,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>175</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>155</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>176</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>177</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>161</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>158</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>53</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>178</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>160</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>179</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>180</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>35</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>181</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>182</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>33</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>162</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>159</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>170</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>38</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>40</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>183</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>156</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>184</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>171</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>37</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>172</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>173</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>649</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>157</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>413</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>414</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>415</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>416</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>417</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>418</v>
       </c>
@@ -19989,9 +19989,9 @@
       <selection activeCell="C39" sqref="C2:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>380</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>0.86206896551724099</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>0.68965517241379304</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20087,7 +20087,7 @@
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>0.65517241379310298</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -20120,7 +20120,7 @@
         <v>0.931034482758621</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>0.82758620689655205</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>0.58620689655172398</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>0.931034482758621</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>0.48275862068965503</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -20175,7 +20175,7 @@
         <v>0.55172413793103403</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>0.86206896551724099</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>0.96551724137931005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>0.41379310344827602</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -20230,7 +20230,7 @@
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -20241,7 +20241,7 @@
         <v>0.68965517241379304</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v>0.72413793103448298</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -20274,7 +20274,7 @@
         <v>0.86206896551724099</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>0.89655172413793105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>0.55172413793103403</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>0.44827586206896602</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>0.931034482758621</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>0.65517241379310298</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -20351,7 +20351,7 @@
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -20362,7 +20362,7 @@
         <v>0.62068965517241403</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>0.62068965517241403</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>0.58620689655172398</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>0.79310344827586199</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -20429,7 +20429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ideophones_coded_SP.xlsx
+++ b/data/ideophones_coded_SP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Data\R\triangulating_iconicity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38600A-3A86-4B07-8591-BEB8AFF9F920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5148E3-D31A-45C9-B8FE-A979D101106F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9" yWindow="9" windowWidth="21925" windowHeight="12325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1303" yWindow="1080" windowWidth="18900" windowHeight="11109" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ideophones_meta" sheetId="1" r:id="rId1"/>
@@ -2914,27 +2914,6 @@
     <t>tolitoli</t>
   </si>
   <si>
-    <t>M_sound</t>
-  </si>
-  <si>
-    <t>M_distribution</t>
-  </si>
-  <si>
-    <t>M_irregular</t>
-  </si>
-  <si>
-    <t>M_weight</t>
-  </si>
-  <si>
-    <t>M_punctual</t>
-  </si>
-  <si>
-    <t>M_durative</t>
-  </si>
-  <si>
-    <t>M_abrupt</t>
-  </si>
-  <si>
     <t>voorovergebogen lopen</t>
   </si>
   <si>
@@ -3002,6 +2981,27 @@
   </si>
   <si>
     <t>F_redupmod_SP</t>
+  </si>
+  <si>
+    <t>M_long_SP</t>
+  </si>
+  <si>
+    <t>M_abrupt_SP</t>
+  </si>
+  <si>
+    <t>M_punctual_SP</t>
+  </si>
+  <si>
+    <t>M_weight_SP</t>
+  </si>
+  <si>
+    <t>M_irregular_SP</t>
+  </si>
+  <si>
+    <t>M_distribution_SP</t>
+  </si>
+  <si>
+    <t>M_sound_SP</t>
   </si>
 </sst>
 </file>
@@ -3410,9 +3410,9 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:AA240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3468,55 +3468,55 @@
         <v>746</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>954</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="X1" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>961</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="AA1" s="1"/>
     </row>
@@ -4419,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="G23" t="s">
         <v>379</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="2">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="R49" s="2">
         <v>1</v>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="2" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.4">
@@ -11677,7 +11677,7 @@
         <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="G120" t="s">
         <v>379</v>
@@ -15542,7 +15542,7 @@
         <v>1</v>
       </c>
       <c r="Q176" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="R176" s="2">
         <v>0</v>
@@ -15885,7 +15885,7 @@
         <v>1</v>
       </c>
       <c r="Q181" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="R181" s="2">
         <v>1</v>
@@ -16636,7 +16636,7 @@
         <v>1</v>
       </c>
       <c r="Q192" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="R192" s="2">
         <v>0</v>
@@ -16707,7 +16707,7 @@
         <v>1</v>
       </c>
       <c r="Q193" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="R193" s="2">
         <v>0</v>
@@ -16846,7 +16846,7 @@
         <v>1</v>
       </c>
       <c r="Q195" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="R195" s="2">
         <v>0</v>
@@ -17121,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="Q199" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="R199" s="2">
         <v>0</v>
@@ -17192,7 +17192,7 @@
         <v>1</v>
       </c>
       <c r="Q200" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="R200" s="2">
         <v>0</v>
@@ -17420,7 +17420,7 @@
         <v>1</v>
       </c>
       <c r="Y203" s="2" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.4">
@@ -17491,7 +17491,7 @@
         <v>0</v>
       </c>
       <c r="Y204" s="2" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.4">
@@ -18372,7 +18372,7 @@
         <v>0</v>
       </c>
       <c r="W217" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X217" s="2">
         <v>0</v>
@@ -18576,7 +18576,7 @@
         <v>0</v>
       </c>
       <c r="W220" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X220" s="2">
         <v>0</v>
